--- a/excel_files/SLA_info.xlsx
+++ b/excel_files/SLA_info.xlsx
@@ -14,21 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>SLAscore</t>
   </si>
   <si>
-    <t>Standard Risk</t>
+    <t>case_count</t>
   </si>
   <si>
-    <t>High Risk</t>
+    <t>last_updated</t>
   </si>
   <si>
-    <t>Low Risk</t>
+    <t>Between updates</t>
+  </si>
+  <si>
+    <t>Created between updates</t>
+  </si>
+  <si>
+    <t>Flagged: Low risk but took less than 1 month.</t>
+  </si>
+  <si>
+    <t>Flagged: Standard risk but took less than 2 months.</t>
   </si>
   <si>
     <t>Missing Data</t>
+  </si>
+  <si>
+    <t>Not Flagged</t>
   </si>
 </sst>
 </file>
@@ -95,9 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,215 +405,1032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>45292</v>
       </c>
-      <c r="C1" s="2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>45323</v>
       </c>
-      <c r="D1" s="2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>45352</v>
       </c>
-      <c r="E1" s="2">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>45383</v>
       </c>
-      <c r="F1" s="2">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>45413</v>
       </c>
-      <c r="G1" s="2">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>45444</v>
       </c>
-      <c r="H1" s="2">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>45474</v>
       </c>
-      <c r="I1" s="2">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>45505</v>
       </c>
-      <c r="J1" s="2">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>45536</v>
       </c>
-      <c r="K1" s="2">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>45566</v>
       </c>
-      <c r="L1" s="2">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>45597</v>
       </c>
-      <c r="M1" s="2">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>45627</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45499</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/SLA_info.xlsx
+++ b/excel_files/SLA_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,13 @@
     <t>last_updated</t>
   </si>
   <si>
-    <t>Between updates</t>
+    <t>Added Between Updates but no createDateTime</t>
   </si>
   <si>
     <t>Created between updates</t>
+  </si>
+  <si>
+    <t>Flagged: Heightened risk but took less than 3 months.</t>
   </si>
   <si>
     <t>Flagged: Low risk but took less than 1 month.</t>
@@ -40,7 +43,7 @@
     <t>Flagged: Standard risk but took less than 2 months.</t>
   </si>
   <si>
-    <t>Missing Data</t>
+    <t>No riskLevel for case.</t>
   </si>
   <si>
     <t>Not Flagged</t>
@@ -405,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +514,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -525,10 +528,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -542,7 +545,7 @@
         <v>45323</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -556,7 +559,7 @@
         <v>45323</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -570,7 +573,7 @@
         <v>45323</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -584,7 +587,7 @@
         <v>45323</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -595,10 +598,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -609,10 +612,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -623,10 +626,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -637,10 +640,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -654,7 +657,7 @@
         <v>45352</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -668,7 +671,7 @@
         <v>45352</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -679,10 +682,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -693,10 +696,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -707,10 +710,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -721,10 +724,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -735,10 +738,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -749,10 +752,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -763,7 +766,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -805,7 +808,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -833,7 +836,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -847,10 +850,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -861,10 +864,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -875,10 +878,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -889,10 +892,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -903,10 +906,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -917,10 +920,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -931,13 +934,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
         <v>45499</v>
@@ -945,13 +948,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
         <v>45499</v>
@@ -959,13 +962,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
         <v>45499</v>
@@ -973,13 +976,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
         <v>45499</v>
@@ -987,13 +990,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
         <v>45499</v>
@@ -1001,13 +1004,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2">
         <v>45499</v>
@@ -1015,10 +1018,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1029,10 +1032,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1043,10 +1046,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1057,10 +1060,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1071,10 +1074,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1085,10 +1088,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1099,7 +1102,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1113,13 +1116,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2">
         <v>45499</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1141,13 +1144,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2">
         <v>45499</v>
@@ -1155,13 +1158,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="2">
         <v>45499</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -1183,10 +1186,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1197,13 +1200,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
         <v>5</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
       <c r="D57" s="2">
         <v>45499</v>
@@ -1211,10 +1214,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1225,10 +1228,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1239,10 +1242,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1253,10 +1256,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1267,10 +1270,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1281,10 +1284,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1295,10 +1298,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1309,10 +1312,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1323,10 +1326,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1337,10 +1340,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1351,10 +1354,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1365,10 +1368,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1379,10 +1382,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1393,10 +1396,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1407,10 +1410,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1421,16 +1424,1696 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>45627</v>
       </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <v>45499</v>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45474</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/SLA_info.xlsx
+++ b/excel_files/SLA_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Created as Case Accepted</t>
-  </si>
-  <si>
-    <t>Flagged: Low risk but took less than 1 month.</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +417,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -431,7 +428,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -442,10 +439,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -453,7 +450,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -464,18 +461,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -486,10 +483,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45383</v>
+        <v>45505</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -497,21 +494,21 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45413</v>
+        <v>45536</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45413</v>
+        <v>45566</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -519,7 +516,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -530,144 +527,12 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45444</v>
+        <v>45627</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
         <v>0</v>
       </c>
     </row>

--- a/excel_files/SLA_info.xlsx
+++ b/excel_files/SLA_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Created as Case Accepted</t>
+  </si>
+  <si>
+    <t>Flagged: Low risk but took less than 1 month.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +409,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>45444</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -417,18 +420,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45323</v>
+        <v>45444</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -439,10 +442,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -450,7 +453,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -461,78 +464,34 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
         <v>0</v>
       </c>
     </row>
